--- a/docs/Iteration Features Log.xlsx
+++ b/docs/Iteration Features Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cianan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X00160711\Downloads\code-and-docs-CiananNicolai\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F549E471-E8E1-42A1-B47B-60E02820D886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B91F8A-EA41-4443-87CA-2702282A6481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
   <si>
     <t>Iteration #1</t>
   </si>
@@ -99,6 +99,21 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Profiles</t>
+  </si>
+  <si>
+    <t>All of it.</t>
+  </si>
+  <si>
+    <t>Will hopefully be resolved during the Winter break.</t>
+  </si>
+  <si>
+    <t>Likes, Comment</t>
+  </si>
+  <si>
+    <t>Will hopefully be resolved next iteration.</t>
   </si>
 </sst>
 </file>
@@ -481,7 +496,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -601,8 +616,12 @@
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
@@ -611,7 +630,9 @@
         <v>8</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
@@ -619,19 +640,27 @@
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">

--- a/docs/Iteration Features Log.xlsx
+++ b/docs/Iteration Features Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X00160711\Downloads\code-and-docs-CiananNicolai\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cianan\Downloads\code-and-docs-CiananNicolai\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B91F8A-EA41-4443-87CA-2702282A6481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11812AC2-D5B5-4CDB-A986-CD538E9D068C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,21 +16,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
   <si>
     <t>Iteration #1</t>
   </si>
@@ -114,6 +104,69 @@
   </si>
   <si>
     <t>Will hopefully be resolved next iteration.</t>
+  </si>
+  <si>
+    <t>Geolocation via IP</t>
+  </si>
+  <si>
+    <t>Geolocation Setup</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>Working, models set up</t>
+  </si>
+  <si>
+    <t>Liking</t>
+  </si>
+  <si>
+    <t>Reworking pages</t>
+  </si>
+  <si>
+    <t>Reworking models</t>
+  </si>
+  <si>
+    <t>Geolocation working via Browser</t>
+  </si>
+  <si>
+    <t>Geolocation working via Profile creation</t>
+  </si>
+  <si>
+    <t>Problem with HTTP Response</t>
+  </si>
+  <si>
+    <t>Iteration #7</t>
+  </si>
+  <si>
+    <t>Iteration #8</t>
+  </si>
+  <si>
+    <t>Hosting</t>
+  </si>
+  <si>
+    <t>Remote Hosting</t>
+  </si>
+  <si>
+    <t>Very basic looking</t>
+  </si>
+  <si>
+    <t>Testing security and code quality</t>
+  </si>
+  <si>
+    <t>Remote Hositng</t>
+  </si>
+  <si>
+    <t>Not fully functional but hosted remotely</t>
+  </si>
+  <si>
+    <t>Remote Hositng via Amazon EC</t>
+  </si>
+  <si>
+    <t>Styling</t>
+  </si>
+  <si>
+    <t>Settings / User Customization</t>
   </si>
 </sst>
 </file>
@@ -493,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -684,8 +737,12 @@
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
@@ -738,17 +795,27 @@
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
@@ -792,8 +859,12 @@
       <c r="A35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
@@ -819,7 +890,9 @@
       <c r="A38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -846,9 +919,15 @@
       <c r="A43" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="B43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -856,7 +935,9 @@
         <v>4</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
@@ -864,9 +945,13 @@
       <c r="A45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="2"/>
+      <c r="B45" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -874,9 +959,133 @@
         <v>6</v>
       </c>
       <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
